--- a/biology/Médecine/Grace_Ellison/Grace_Ellison.xlsx
+++ b/biology/Médecine/Grace_Ellison/Grace_Ellison.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Grace Mary Ellison, morte à Berlin le 3 octobre 1935, est une journaliste britannique, spécialiste de la Turquie, et fondatrice du Corps d'infirmières du drapeau français (French Flag Nursing Corps, FFNC) pendant la Première Guerre mondiale.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Originaire d'Écosse, elle est la fille du capitaine John Ellison. Elle doit aux histoires de navigation de son père vers l'Inde l'inspiration de sa vie de voyageuse. Elle fait ses études en Angleterre à la Rochester Girls' Grammar School, en France, et à l'Université de Halle.
 Elle se lie d'amitié avec les sœurs turques Hadjidjé Zennour et Nouryé Neyr-el-Nissa, en 1905. Sous leurs pseudonymes, elle co-écrit avec elles et édite en anglais A Turkish Woman's European Impressions (1913), un mémoire de Zeyneb Hanoum, et Abdul Hamid's Daughter (1913), un roman de Melek Hanoum. Lors d'un voyage en Turquie en 1908-1909 et 1912-1913, elle rédige des articles pour The Daily Telegraph. Elle plaide pour que les étudiantes aient accès aux cours universitaires à Constantinople. Elle reçoit l'Ordre de la Charité (Şefkat Nişanı) pour son action en faveur des femmes en Turquie. Elle rend compte de la deuxième conférence de La Haye (1907) et est reporter continentale pour le magazine britannique Bystander (en).
@@ -548,7 +562,9 @@
           <t>Monographies</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">An Englishwoman in a Turkish Harem (1915)
 An Englishwoman in the French Firing Line (1915)
